--- a/assignment/excel assignment/assignment.xlsx
+++ b/assignment/excel assignment/assignment.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sony Vaio\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sony Vaio\Documents\github\JeetPython_tops\assignment\excel assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE67354-B68C-4A8C-B914-64B30932E45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -488,7 +489,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -521,11 +522,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,11 +806,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,12 +1715,12 @@
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
       <c r="G30" t="s">
         <v>27</v>
       </c>
@@ -1808,12 +1809,12 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1936,12 +1937,12 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -2140,17 +2141,17 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>138</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <f>DATE(2020,9,20)</f>
         <v>44094</v>
       </c>
@@ -2162,7 +2163,7 @@
       <c r="A72" t="s">
         <v>139</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <f>DATE(2020,5,20)-5</f>
         <v>43966</v>
       </c>
@@ -2174,9 +2175,9 @@
       <c r="A73" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <f ca="1">TODAY()</f>
-        <v>45030</v>
+        <v>45294</v>
       </c>
       <c r="C73" t="s">
         <v>145</v>
@@ -2186,9 +2187,9 @@
       <c r="A74" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <f ca="1">TODAY()+5</f>
-        <v>45035</v>
+        <v>45299</v>
       </c>
       <c r="C74" t="s">
         <v>146</v>
@@ -2200,7 +2201,7 @@
       </c>
       <c r="B75">
         <f ca="1">WORKDAY(TODAY(),15)</f>
-        <v>45051</v>
+        <v>45315</v>
       </c>
       <c r="C75" t="s">
         <v>147</v>
@@ -2210,7 +2211,7 @@
       <c r="A76" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="3">
         <f>TIME(5,20,22)</f>
         <v>0.22247685185185184</v>
       </c>
@@ -2222,7 +2223,7 @@
       <c r="A77" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <f>TIME(18,20,5)</f>
         <v>0.76394675925925926</v>
       </c>
@@ -2243,7 +2244,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="AD3:AG8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AD3:AG8">
     <sortCondition ref="AE3:AE8" customList="anil,virat,sachin,sehwag,rohit"/>
   </sortState>
   <mergeCells count="4">
@@ -2253,7 +2254,7 @@
     <mergeCell ref="A70:C70"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$B$19:$B$23</formula1>
     </dataValidation>
   </dataValidations>
